--- a/Thesis_Codes/Back_End/Baguio_Dataset_Version2.xlsx
+++ b/Thesis_Codes/Back_End/Baguio_Dataset_Version2.xlsx
@@ -1,24 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ellison\School\3RD YEAR COLLEGE 1ST SEM\SOFTWARE ENGINEER\Cultour App\CulTour_Ellison_and_Friends\Thesis_Codes\Back_End\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8509B24-B6EF-4AE8-BBFF-F37F9FD23A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Monitor_Data"/>
-    <sheet r:id="rId2" sheetId="2" name="User_Account"/>
-    <sheet r:id="rId3" sheetId="3" name="Tourist Attraction"/>
-    <sheet r:id="rId4" sheetId="4" name="Restaurant"/>
-    <sheet r:id="rId5" sheetId="5" name="Hotels and Accomodation"/>
+    <sheet name="Monitor_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="User_Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Tourist Attraction" sheetId="3" r:id="rId3"/>
+    <sheet name="Restaurant" sheetId="4" r:id="rId4"/>
+    <sheet name="Hotels and Accomodation" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
   <si>
     <t>Hotel_ID</t>
   </si>
@@ -501,14 +520,22 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Museo Kordilyera</t>
+  </si>
+  <si>
+    <t>A museum celebrating the indigenous cultures of the Cordillera region, showcasing their art, artifacts, and traditions.</t>
+  </si>
+  <si>
+    <t>A cultural village showcasing the different tribes of the Cordillera region, including their traditional art and crafts.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +567,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -550,7 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -571,16 +604,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,71 +621,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -663,10 +688,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -704,71 +729,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -796,7 +821,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -819,11 +844,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -832,13 +857,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -848,7 +873,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -857,7 +882,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -866,7 +891,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -874,10 +899,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -942,7 +967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -952,12 +977,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>158</v>
       </c>
@@ -974,7 +997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -984,12 +1007,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>158</v>
       </c>
@@ -1006,30 +1027,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1064,8 +1086,8 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1077,10 +1099,10 @@
       <c r="D2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="6">
-        <v>16.1077</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="14">
+        <v>16.107700000000001</v>
+      </c>
+      <c r="F2" s="14">
         <v>120.6062</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1089,19 +1111,20 @@
       <c r="H2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>4.5</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>120</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5">
-        <f>A2+1</f>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A17" si="0">A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>124</v>
@@ -1112,11 +1135,11 @@
       <c r="D3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="6">
-        <v>16.1125</v>
-      </c>
-      <c r="F3" s="6">
-        <v>120.6072</v>
+      <c r="E3" s="14">
+        <v>16.112500000000001</v>
+      </c>
+      <c r="F3" s="14">
+        <v>120.60720000000001</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>122</v>
@@ -1124,19 +1147,20 @@
       <c r="H3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>4.7</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>150</v>
       </c>
-      <c r="K3" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5">
-        <f>A3+1</f>
+      <c r="K3" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>127</v>
@@ -1147,10 +1171,10 @@
       <c r="D4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="6">
-        <v>16.1078</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="14">
+        <v>16.107800000000001</v>
+      </c>
+      <c r="F4" s="14">
         <v>120.6063</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1159,19 +1183,20 @@
       <c r="H4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="6">
-        <v>4.6</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J4" s="4">
         <v>200</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5">
-        <f>A4+1</f>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>132</v>
@@ -1182,10 +1207,10 @@
       <c r="D5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="6">
-        <v>16.108</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="14">
+        <v>16.108000000000001</v>
+      </c>
+      <c r="F5" s="14">
         <v>120.6065</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1194,19 +1219,20 @@
       <c r="H5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>4.5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>100</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5">
-        <f>A5+1</f>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>135</v>
@@ -1217,10 +1243,10 @@
       <c r="D6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="6">
-        <v>16.1031</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="14">
+        <v>16.103100000000001</v>
+      </c>
+      <c r="F6" s="14">
         <v>120.6041</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1229,19 +1255,20 @@
       <c r="H6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>4.7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>150</v>
       </c>
-      <c r="K6" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5">
-        <f>A6+1</f>
+      <c r="K6" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>137</v>
@@ -1252,10 +1279,10 @@
       <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="6">
-        <v>16.1108</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="14">
+        <v>16.110800000000001</v>
+      </c>
+      <c r="F7" s="14">
         <v>120.6069</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1264,19 +1291,20 @@
       <c r="H7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="6">
-        <v>4.6</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J7" s="4">
         <v>120</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5">
-        <f>A7+1</f>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>139</v>
@@ -1287,10 +1315,10 @@
       <c r="D8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="6">
-        <v>16.1106</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="14">
+        <v>16.110600000000002</v>
+      </c>
+      <c r="F8" s="14">
         <v>120.6071</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1299,19 +1327,20 @@
       <c r="H8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>4.5</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>80</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5">
-        <f>A8+1</f>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>143</v>
@@ -1322,10 +1351,10 @@
       <c r="D9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="6">
-        <v>16.1041</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="14">
+        <v>16.104099999999999</v>
+      </c>
+      <c r="F9" s="14">
         <v>120.6073</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1334,19 +1363,20 @@
       <c r="H9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>4.7</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>120</v>
       </c>
-      <c r="K9" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5">
-        <f>A9+1</f>
+      <c r="K9" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>147</v>
@@ -1357,10 +1387,10 @@
       <c r="D10" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="6">
-        <v>16.1028</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="14">
+        <v>16.102799999999998</v>
+      </c>
+      <c r="F10" s="14">
         <v>120.6049</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1369,19 +1399,20 @@
       <c r="H10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="6">
-        <v>4.6</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J10" s="4">
         <v>80</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5">
-        <f>A10+1</f>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>151</v>
@@ -1392,10 +1423,10 @@
       <c r="D11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="6">
-        <v>16.1077</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="14">
+        <v>16.107700000000001</v>
+      </c>
+      <c r="F11" s="14">
         <v>120.6063</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1404,19 +1435,20 @@
       <c r="H11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>4.8</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>150</v>
       </c>
-      <c r="K11" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5">
-        <f>A11+1</f>
+      <c r="K11" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>153</v>
@@ -1427,10 +1459,10 @@
       <c r="D12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="14">
         <v>16.1175</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="14">
         <v>120.6049</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1439,19 +1471,20 @@
       <c r="H12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>4.7</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>100</v>
       </c>
-      <c r="K12" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5">
-        <f>A12+1</f>
+      <c r="K12" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>124</v>
@@ -1462,11 +1495,11 @@
       <c r="D13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="6">
-        <v>16.1125</v>
-      </c>
-      <c r="F13" s="6">
-        <v>120.6072</v>
+      <c r="E13" s="14">
+        <v>16.112500000000001</v>
+      </c>
+      <c r="F13" s="14">
+        <v>120.60720000000001</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>122</v>
@@ -1474,19 +1507,20 @@
       <c r="H13" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>4.7</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>150</v>
       </c>
-      <c r="K13" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5">
-        <f>A13+1</f>
+      <c r="K13" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>155</v>
@@ -1497,10 +1531,10 @@
       <c r="D14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="6">
-        <v>16.1078</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="14">
+        <v>16.107800000000001</v>
+      </c>
+      <c r="F14" s="14">
         <v>120.6063</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1509,938 +1543,708 @@
       <c r="H14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="6">
-        <v>4.6</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="I14" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J14" s="4">
         <v>200</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="8"/>
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="17">
+        <v>16.242000000000001</v>
+      </c>
+      <c r="F15" s="17">
+        <v>120.255</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J15" s="4">
+        <v>190</v>
+      </c>
+      <c r="K15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="17">
+        <v>16.43</v>
+      </c>
+      <c r="F16" s="17">
+        <v>120.58</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J16" s="4">
+        <v>300</v>
+      </c>
+      <c r="K16" s="5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="8"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="8"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="8"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="8"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="8"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="8"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="8"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="8"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="8"/>
+    <row r="30" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="8"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="8"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="8"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="8"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="8"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="8"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="8"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="8"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="8"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="8"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="8"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="8"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="8"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="8"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="8"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="8"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="8"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="8"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="8"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="8"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="8"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="8"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="8"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="8"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="8"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="8"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="8"/>
+    </row>
+    <row r="58" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="8"/>
+    </row>
+    <row r="59" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="8"/>
+    </row>
+    <row r="60" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="8"/>
+    </row>
+    <row r="61" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="8"/>
+    </row>
+    <row r="62" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="8"/>
+    </row>
+    <row r="63" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="8"/>
+    </row>
+    <row r="64" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="8"/>
+    </row>
+    <row r="65" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="8"/>
+    </row>
+    <row r="66" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="8"/>
+    </row>
+    <row r="67" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="8"/>
+    </row>
+    <row r="68" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="8"/>
+    </row>
+    <row r="69" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="8"/>
+    </row>
+    <row r="70" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="8"/>
+    </row>
+    <row r="71" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="8"/>
+    </row>
+    <row r="72" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="8"/>
+    </row>
+    <row r="73" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="8"/>
+    </row>
+    <row r="74" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="8"/>
+    </row>
+    <row r="75" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="8"/>
+    </row>
+    <row r="76" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="8"/>
+    </row>
+    <row r="77" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="8"/>
+    </row>
+    <row r="78" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="8"/>
+    </row>
+    <row r="79" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="8"/>
+    </row>
+    <row r="80" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="8"/>
+    </row>
+    <row r="81" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="8"/>
+    </row>
+    <row r="82" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="8"/>
+    </row>
+    <row r="83" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="8"/>
+    </row>
+    <row r="84" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="8"/>
+    </row>
+    <row r="85" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2448,27 +2252,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="70.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -2494,517 +2298,514 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="14">
         <v>16.4117807699579</v>
       </c>
-      <c r="E2" s="6">
-        <v>120.592002125922</v>
-      </c>
-      <c r="F2" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="E2" s="14">
+        <v>120.59200212592199</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G2" s="4">
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="6">
-        <v>16.4099941521283</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="14">
+        <v>16.409994152128299</v>
+      </c>
+      <c r="E3" s="14">
         <v>120.600346114616</v>
       </c>
-      <c r="F3" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G3" s="4">
         <v>1400</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="6">
-        <v>16.4093138222725</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="14">
+        <v>16.409313822272502</v>
+      </c>
+      <c r="E4" s="15">
         <v>120.594638174651</v>
       </c>
-      <c r="F4" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G4" s="4">
         <v>1600</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="6">
-        <v>16.4299720842375</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="14">
+        <v>16.429972084237502</v>
+      </c>
+      <c r="E5" s="15">
         <v>120.576368765872</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>4.5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>845</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="14">
         <v>16.4120041849046</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="14">
         <v>120.598029379366</v>
       </c>
-      <c r="F6" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G6" s="4">
         <v>797</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="6">
-        <v>16.4044344347532</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="14">
+        <v>16.404434434753199</v>
+      </c>
+      <c r="E7" s="14">
         <v>120.592788330659</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>4.5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>759</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="6">
-        <v>16.4008800836129</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="14">
+        <v>16.400880083612901</v>
+      </c>
+      <c r="E8" s="14">
         <v>120.617697223543</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>4.5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>313</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="6">
-        <v>16.4111012538163</v>
-      </c>
-      <c r="E9" s="6">
-        <v>120.623009491737</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="D9" s="14">
+        <v>16.411101253816302</v>
+      </c>
+      <c r="E9" s="14">
+        <v>120.62300949173699</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G9" s="4">
         <v>1800</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="6">
-        <v>16.4096487154558</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="14">
+        <v>16.409648715455798</v>
+      </c>
+      <c r="E10" s="14">
         <v>120.622977233689</v>
       </c>
-      <c r="F10" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G10" s="4">
         <v>1200</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="6">
-        <v>16.4120168723154</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="14">
+        <v>16.412016872315402</v>
+      </c>
+      <c r="E11" s="14">
         <v>120.609841612781</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>4.3</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>466</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="6">
-        <v>16.4119761015376</v>
-      </c>
-      <c r="E12" s="6">
-        <v>120.602968898595</v>
-      </c>
-      <c r="F12" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="D12" s="14">
+        <v>16.411976101537601</v>
+      </c>
+      <c r="E12" s="14">
+        <v>120.60296889859499</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G12" s="4">
         <v>438</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="6">
-        <v>16.4113290353558</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="14">
+        <v>16.411329035355799</v>
+      </c>
+      <c r="E13" s="14">
         <v>120.604612093051</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>4.3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>246</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="14">
         <v>16.4134412914545</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="14">
         <v>120.582610481405</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>4.5</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>238</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5">
-        <f>A14 + 1</f>
-      </c>
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" ref="A15:A20" si="0">A14 + 1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="6">
-        <v>16.416627207255</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="14">
+        <v>16.416627207255001</v>
+      </c>
+      <c r="E15" s="14">
         <v>120.596860398595</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>4.3</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>2300</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="5">
-        <f>A15 + 1</f>
-      </c>
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="6">
-        <v>16.4130370922439</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="14">
+        <v>16.413037092243901</v>
+      </c>
+      <c r="E16" s="14">
         <v>120.591616408392</v>
       </c>
-      <c r="F16" s="6">
-        <v>4.1</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G16" s="4">
         <v>1900</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="5">
-        <f>A16 + 1</f>
-      </c>
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="6">
-        <v>16.4051833945097</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="14">
+        <v>16.405183394509699</v>
+      </c>
+      <c r="E17" s="14">
         <v>120.604769647174</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>4.2</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>815</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="5">
-        <f>A17 + 1</f>
-      </c>
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="6">
-        <v>16.4086274273305</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="14">
+        <v>16.408627427330501</v>
+      </c>
+      <c r="E18" s="14">
         <v>120.610522379557</v>
       </c>
-      <c r="F18" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G18" s="4">
         <v>1700</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="5">
-        <f>A18 + 1</f>
-      </c>
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="6">
-        <v>16.3997942162533</v>
-      </c>
-      <c r="E19" s="6">
-        <v>120.584059079557</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="D19" s="14">
+        <v>16.399794216253301</v>
+      </c>
+      <c r="E19" s="14">
+        <v>120.58405907955699</v>
+      </c>
+      <c r="F19" s="5">
         <v>4.3</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>201</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="5">
-        <f>A19 + 1</f>
-      </c>
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="6">
-        <v>16.4064644800478</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="14">
+        <v>16.406464480047799</v>
+      </c>
+      <c r="E20" s="14">
         <v>120.593276000442</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>4.3</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>59</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4"/>
-    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3014,35 +2815,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3076,24 +2862,9 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3102,13 +2873,13 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6">
-        <v>16.1031</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="5">
+        <v>16.103100000000001</v>
+      </c>
+      <c r="E2" s="5">
         <v>120.6041</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -3120,30 +2891,15 @@
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>200</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>4.8</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3152,13 +2908,13 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6">
-        <v>16.1034</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="5">
+        <v>16.103400000000001</v>
+      </c>
+      <c r="E3" s="5">
         <v>120.6044</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -3170,30 +2926,15 @@
       <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>150</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>4.7</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5">
+    </row>
+    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3202,13 +2943,13 @@
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6">
-        <v>16.1078</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5">
+        <v>16.107800000000001</v>
+      </c>
+      <c r="E4" s="5">
         <v>120.6063</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -3220,30 +2961,15 @@
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>100</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>4.5</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5">
+    </row>
+    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3252,13 +2978,13 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6">
-        <v>16.1079</v>
-      </c>
-      <c r="E5" s="6">
-        <v>120.6064</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D5" s="5">
+        <v>16.107900000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>120.60639999999999</v>
+      </c>
+      <c r="F5" s="4">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -3270,30 +2996,15 @@
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>80</v>
       </c>
-      <c r="K5" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5">
+      <c r="K5" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3302,13 +3013,13 @@
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6">
-        <v>16.108</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="5">
+        <v>16.108000000000001</v>
+      </c>
+      <c r="E6" s="5">
         <v>120.6065</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -3320,30 +3031,15 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>120</v>
       </c>
-      <c r="K6" s="6">
-        <v>4.6</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5">
+      <c r="K6" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3352,13 +3048,13 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6">
-        <v>16.1078</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="5">
+        <v>16.107800000000001</v>
+      </c>
+      <c r="E7" s="5">
         <v>120.6063</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -3370,30 +3066,15 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>60</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>4.3</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5">
+    </row>
+    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3402,13 +3083,13 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6">
-        <v>16.1031</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="5">
+        <v>16.103100000000001</v>
+      </c>
+      <c r="E8" s="5">
         <v>120.6041</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -3420,30 +3101,15 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>130</v>
       </c>
-      <c r="K8" s="6">
-        <v>4.6</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5">
+      <c r="K8" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3452,13 +3118,13 @@
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6">
-        <v>16.1079</v>
-      </c>
-      <c r="E9" s="6">
-        <v>120.6064</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="5">
+        <v>16.107900000000001</v>
+      </c>
+      <c r="E9" s="5">
+        <v>120.60639999999999</v>
+      </c>
+      <c r="F9" s="4">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -3470,30 +3136,15 @@
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>90</v>
       </c>
-      <c r="K9" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5">
+      <c r="K9" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3502,13 +3153,13 @@
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6">
-        <v>16.108</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="5">
+        <v>16.108000000000001</v>
+      </c>
+      <c r="E10" s="5">
         <v>120.6065</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -3520,31 +3171,17 @@
       <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>70</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>4.3</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5">
-        <f>A10+1</f>
+    </row>
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" ref="A11:A17" si="0">A10+1</f>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
@@ -3552,16 +3189,16 @@
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6">
-        <v>16.4052</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5">
+        <v>16.405200000000001</v>
+      </c>
+      <c r="E11" s="5">
         <v>120.5986</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -3570,11 +3207,11 @@
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>660</v>
       </c>
-      <c r="K11" s="6">
-        <v>4.1</v>
+      <c r="K11" s="5">
+        <v>4.0999999999999996</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -3592,9 +3229,10 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5">
-        <f>A11+1</f>
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>43</v>
@@ -3602,16 +3240,16 @@
       <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>16.4055</v>
       </c>
-      <c r="E12" s="6">
-        <v>120.5983</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="5">
+        <v>120.59829999999999</v>
+      </c>
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3620,10 +3258,10 @@
       <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>293</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>4.3</v>
       </c>
       <c r="L12" s="2"/>
@@ -3642,9 +3280,10 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5">
-        <f>A12+1</f>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>46</v>
@@ -3652,28 +3291,28 @@
       <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="6">
-        <v>16.4037</v>
-      </c>
-      <c r="E13" s="6">
-        <v>120.5999</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="D13" s="5">
+        <v>16.403700000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>120.59990000000001</v>
+      </c>
+      <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>434</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>4</v>
       </c>
       <c r="L13" s="2"/>
@@ -3692,9 +3331,10 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5">
-        <f>A13+1</f>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>49</v>
@@ -3702,29 +3342,29 @@
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>16.3872</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>120.5849</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="6">
-        <v>4.4</v>
+      <c r="K14" s="5">
+        <v>4.4000000000000004</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -3742,9 +3382,10 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5">
-        <f>A14+1</f>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>54</v>
@@ -3752,29 +3393,29 @@
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>16.4085</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>120.5964</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>3</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>919</v>
       </c>
-      <c r="K15" s="6">
-        <v>4.1</v>
+      <c r="K15" s="5">
+        <v>4.0999999999999996</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -3792,9 +3433,10 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="5">
-        <f>A15+1</f>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>56</v>
@@ -3802,28 +3444,28 @@
       <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>16.3932</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>120.5851</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>232</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>4.2</v>
       </c>
       <c r="L16" s="2"/>
@@ -3842,9 +3484,10 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="5">
-        <f>A16+1</f>
+    <row r="17" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>60</v>
@@ -3852,28 +3495,28 @@
       <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="6">
-        <v>16.4256</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="5">
+        <v>16.425599999999999</v>
+      </c>
+      <c r="E17" s="5">
         <v>120.6151</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>4</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>734</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>4.5</v>
       </c>
       <c r="L17" s="2"/>
@@ -3892,89 +3535,17 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+    <row r="18" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Thesis_Codes/Back_End/Baguio_Dataset_Version2.xlsx
+++ b/Thesis_Codes/Back_End/Baguio_Dataset_Version2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ellison\School\3RD YEAR COLLEGE 1ST SEM\SOFTWARE ENGINEER\Cultour App\CulTour_Ellison_and_Friends\Thesis_Codes\Back_End\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8509B24-B6EF-4AE8-BBFF-F37F9FD23A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E7D11E-4CC8-488D-9790-442351705873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitor_Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="169">
   <si>
     <t>Hotel_ID</t>
   </si>
@@ -276,9 +276,6 @@
     <t>108 Session Rd, Baguio, 2600 Benguet</t>
   </si>
   <si>
-    <t>Filipino Vegetarian</t>
-  </si>
-  <si>
     <t>Chaya</t>
   </si>
   <si>
@@ -288,15 +285,6 @@
     <t>Japanese</t>
   </si>
   <si>
-    <t>Le Chef</t>
-  </si>
-  <si>
-    <t>2600 Loakan Rd, Baguio, Benguet</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
     <t>Lemon and Olives Greek Taverna</t>
   </si>
   <si>
@@ -513,6 +501,18 @@
     <t>5:00 PM - 10:00 PM</t>
   </si>
   <si>
+    <t>Museo Kordilyera</t>
+  </si>
+  <si>
+    <t>A museum celebrating the indigenous cultures of the Cordillera region, showcasing their art, artifacts, and traditions.</t>
+  </si>
+  <si>
+    <t>Igorot Stone Kingdom</t>
+  </si>
+  <si>
+    <t>A cultural theme park featuring impressive stone architecture, showcasing Cordilleran culture through stone walls, steps, and structures. Visitors can experience traditional Igorot culture, take photos in tradictional attire, and enjoy panoramic mountain views</t>
+  </si>
+  <si>
     <t>User_ID</t>
   </si>
   <si>
@@ -522,20 +522,35 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Museo Kordilyera</t>
-  </si>
-  <si>
-    <t>A museum celebrating the indigenous cultures of the Cordillera region, showcasing their art, artifacts, and traditions.</t>
-  </si>
-  <si>
-    <t>A cultural village showcasing the different tribes of the Cordillera region, including their traditional art and crafts.</t>
+    <t>Yasuragi Japanese Restaurant</t>
+  </si>
+  <si>
+    <t>27a Sofia De Veyra Street, Baguio, 2600 Benguet</t>
+  </si>
+  <si>
+    <t>Oh My Greek</t>
+  </si>
+  <si>
+    <t>CH5X+MX5, Luneta Hill Dr, Baguio, Benguet</t>
+  </si>
+  <si>
+    <t>CJ8F+R8R, C. Arellano Street, Moran St, Baguio, Benguet</t>
+  </si>
+  <si>
+    <t>Mangiamo Ristorante and Pizzeria</t>
+  </si>
+  <si>
+    <t>Wood Nymph Korean Restaurant</t>
+  </si>
+  <si>
+    <t>2nd Floor (L2), SM City Baguio, Luneta Hill Dr, Baguio, Benguet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,12 +568,6 @@
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -621,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -649,14 +658,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -664,8 +682,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,7 +1014,7 @@
         <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>64</v>
@@ -1033,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,16 +1082,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1071,13 +1100,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -1091,25 +1120,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="16">
+        <v>16.107700000000001</v>
+      </c>
+      <c r="F2" s="16">
+        <v>120.6062</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="14">
-        <v>16.107700000000001</v>
-      </c>
-      <c r="F2" s="14">
-        <v>120.6062</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="I2" s="5">
         <v>4.5</v>
@@ -1123,29 +1152,29 @@
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A17" si="0">A2+1</f>
+        <f t="shared" ref="A3:A15" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="14">
+        <v>117</v>
+      </c>
+      <c r="E3" s="16">
         <v>16.112500000000001</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="16">
         <v>120.60720000000001</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="I3" s="5">
         <v>4.7</v>
@@ -1163,25 +1192,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="16">
+        <v>16.107800000000001</v>
+      </c>
+      <c r="F4" s="16">
+        <v>120.6063</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="14">
-        <v>16.107800000000001</v>
-      </c>
-      <c r="F4" s="14">
-        <v>120.6063</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="I4" s="5">
         <v>4.5999999999999996</v>
@@ -1199,25 +1228,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="14">
+        <v>130</v>
+      </c>
+      <c r="E5" s="16">
         <v>16.108000000000001</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="16">
         <v>120.6065</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I5" s="5">
         <v>4.5</v>
@@ -1235,25 +1264,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="14">
+        <v>130</v>
+      </c>
+      <c r="E6" s="16">
         <v>16.103100000000001</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="16">
         <v>120.6041</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I6" s="5">
         <v>4.7</v>
@@ -1271,25 +1300,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="14">
+        <v>117</v>
+      </c>
+      <c r="E7" s="16">
         <v>16.110800000000001</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="16">
         <v>120.6069</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I7" s="5">
         <v>4.5999999999999996</v>
@@ -1307,25 +1336,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="14">
+        <v>117</v>
+      </c>
+      <c r="E8" s="16">
         <v>16.110600000000002</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="16">
         <v>120.6071</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I8" s="5">
         <v>4.5</v>
@@ -1343,25 +1372,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="14">
+        <v>141</v>
+      </c>
+      <c r="E9" s="16">
         <v>16.104099999999999</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="16">
         <v>120.6073</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I9" s="5">
         <v>4.7</v>
@@ -1379,25 +1408,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="14">
+        <v>145</v>
+      </c>
+      <c r="E10" s="16">
         <v>16.102799999999998</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="16">
         <v>120.6049</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I10" s="5">
         <v>4.5999999999999996</v>
@@ -1415,25 +1444,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="14">
+        <v>130</v>
+      </c>
+      <c r="E11" s="16">
         <v>16.107700000000001</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="16">
         <v>120.6063</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I11" s="5">
         <v>4.8</v>
@@ -1451,25 +1480,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="14">
+        <v>130</v>
+      </c>
+      <c r="E12" s="16">
         <v>16.1175</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="16">
         <v>120.6049</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I12" s="5">
         <v>4.7</v>
@@ -1487,34 +1516,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="14">
-        <v>16.112500000000001</v>
-      </c>
-      <c r="F13" s="14">
-        <v>120.60720000000001</v>
+      <c r="E13" s="16">
+        <v>16.107800000000001</v>
+      </c>
+      <c r="F13" s="16">
+        <v>120.6063</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I13" s="5">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J13" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K13" s="5">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1523,107 +1552,84 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="14">
-        <v>16.107800000000001</v>
-      </c>
-      <c r="F14" s="14">
-        <v>120.6063</v>
+        <v>145</v>
+      </c>
+      <c r="E14" s="16">
+        <v>16.242000000000001</v>
+      </c>
+      <c r="F14" s="16">
+        <v>120.255</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I14" s="5">
         <v>4.5999999999999996</v>
       </c>
       <c r="J14" s="4">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K14" s="5">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="17">
-        <v>16.242000000000001</v>
-      </c>
-      <c r="F15" s="17">
-        <v>120.255</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J15" s="4">
-        <v>190</v>
-      </c>
-      <c r="K15" s="5">
-        <v>4</v>
+      <c r="B15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="13">
+        <v>16.403400000000001</v>
+      </c>
+      <c r="F15" s="13">
+        <v>120.59350000000001</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="J15" s="15">
+        <v>500</v>
+      </c>
+      <c r="K15" s="14">
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="17">
-        <v>16.43</v>
-      </c>
-      <c r="F16" s="17">
-        <v>120.58</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J16" s="4">
-        <v>300</v>
-      </c>
-      <c r="K16" s="5">
-        <v>4.3</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="5"/>
@@ -2256,10 +2262,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,10 +2314,10 @@
       <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="17">
         <v>16.4117807699579</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="17">
         <v>120.59200212592199</v>
       </c>
       <c r="F2" s="5">
@@ -2328,16 +2334,16 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="17">
         <v>16.409994152128299</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="17">
         <v>120.600346114616</v>
       </c>
       <c r="F3" s="5">
@@ -2354,16 +2360,16 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="17">
         <v>16.409313822272502</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="18">
         <v>120.594638174651</v>
       </c>
       <c r="F4" s="5">
@@ -2380,16 +2386,16 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="17">
         <v>16.429972084237502</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="18">
         <v>120.576368765872</v>
       </c>
       <c r="F5" s="5">
@@ -2406,16 +2412,16 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="17">
         <v>16.4120041849046</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="17">
         <v>120.598029379366</v>
       </c>
       <c r="F6" s="5">
@@ -2425,23 +2431,23 @@
         <v>797</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="D7" s="17">
         <v>16.404434434753199</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="17">
         <v>120.592788330659</v>
       </c>
       <c r="F7" s="5">
@@ -2451,108 +2457,112 @@
         <v>759</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
+        <f xml:space="preserve"> A7 + 1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="17">
+        <v>16.411101253816302</v>
+      </c>
+      <c r="E8" s="17">
+        <v>120.62300949173699</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1800</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D8" s="14">
-        <v>16.400880083612901</v>
-      </c>
-      <c r="E8" s="14">
-        <v>120.617697223543</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>313</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
+        <f t="shared" ref="A9:A23" si="0" xml:space="preserve"> A8 + 1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="14">
-        <v>16.411101253816302</v>
-      </c>
-      <c r="E9" s="14">
-        <v>120.62300949173699</v>
+      <c r="D9" s="17">
+        <v>16.409648715455798</v>
+      </c>
+      <c r="E9" s="17">
+        <v>120.622977233689</v>
       </c>
       <c r="F9" s="5">
         <v>4.4000000000000004</v>
       </c>
       <c r="G9" s="4">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="14">
-        <v>16.409648715455798</v>
-      </c>
-      <c r="E10" s="14">
-        <v>120.622977233689</v>
+      <c r="D10" s="17">
+        <v>16.412016872315402</v>
+      </c>
+      <c r="E10" s="17">
+        <v>120.609841612781</v>
       </c>
       <c r="F10" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="G10" s="4">
-        <v>1200</v>
+        <v>466</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>92</v>
+      <c r="B11" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="14">
-        <v>16.412016872315402</v>
-      </c>
-      <c r="E11" s="14">
-        <v>120.609841612781</v>
+        <v>91</v>
+      </c>
+      <c r="D11" s="17">
+        <v>16.411976101537601</v>
+      </c>
+      <c r="E11" s="17">
+        <v>120.60296889859499</v>
       </c>
       <c r="F11" s="5">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G11" s="4">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>69</v>
@@ -2560,25 +2570,26 @@
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>94</v>
+      <c r="B12" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="14">
-        <v>16.411976101537601</v>
-      </c>
-      <c r="E12" s="14">
-        <v>120.60296889859499</v>
+        <v>93</v>
+      </c>
+      <c r="D12" s="17">
+        <v>16.411329035355799</v>
+      </c>
+      <c r="E12" s="17">
+        <v>120.604612093051</v>
       </c>
       <c r="F12" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="G12" s="4">
-        <v>438</v>
+        <v>246</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>69</v>
@@ -2586,25 +2597,26 @@
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>96</v>
+      <c r="B13" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="14">
-        <v>16.411329035355799</v>
-      </c>
-      <c r="E13" s="14">
-        <v>120.604612093051</v>
+        <v>95</v>
+      </c>
+      <c r="D13" s="17">
+        <v>16.4134412914545</v>
+      </c>
+      <c r="E13" s="17">
+        <v>120.582610481405</v>
       </c>
       <c r="F13" s="5">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G13" s="4">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>69</v>
@@ -2612,25 +2624,26 @@
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>98</v>
+      <c r="B14" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="14">
-        <v>16.4134412914545</v>
-      </c>
-      <c r="E14" s="14">
-        <v>120.582610481405</v>
+        <v>97</v>
+      </c>
+      <c r="D14" s="17">
+        <v>16.416627207255001</v>
+      </c>
+      <c r="E14" s="17">
+        <v>120.596860398595</v>
       </c>
       <c r="F14" s="5">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G14" s="4">
-        <v>238</v>
+        <v>2300</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>69</v>
@@ -2638,26 +2651,26 @@
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" ref="A15:A20" si="0">A14 + 1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>100</v>
+      <c r="B15" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="14">
-        <v>16.416627207255001</v>
-      </c>
-      <c r="E15" s="14">
-        <v>120.596860398595</v>
+        <v>99</v>
+      </c>
+      <c r="D15" s="17">
+        <v>16.413037092243901</v>
+      </c>
+      <c r="E15" s="17">
+        <v>120.591616408392</v>
       </c>
       <c r="F15" s="5">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G15" s="4">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>69</v>
@@ -2668,26 +2681,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>102</v>
+      <c r="B16" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="14">
-        <v>16.413037092243901</v>
-      </c>
-      <c r="E16" s="14">
-        <v>120.591616408392</v>
+        <v>101</v>
+      </c>
+      <c r="D16" s="17">
+        <v>16.405183394509699</v>
+      </c>
+      <c r="E16" s="17">
+        <v>120.604769647174</v>
       </c>
       <c r="F16" s="5">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="G16" s="4">
-        <v>1900</v>
+        <v>815</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2695,26 +2708,26 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="17">
+        <v>16.408627427330501</v>
+      </c>
+      <c r="E17" s="17">
+        <v>120.610522379557</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1700</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="14">
-        <v>16.405183394509699</v>
-      </c>
-      <c r="E17" s="14">
-        <v>120.604769647174</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>815</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2722,26 +2735,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="14">
-        <v>16.408627427330501</v>
-      </c>
-      <c r="E18" s="14">
-        <v>120.610522379557</v>
+      <c r="D18" s="17">
+        <v>16.399794216253301</v>
+      </c>
+      <c r="E18" s="17">
+        <v>120.58405907955699</v>
       </c>
       <c r="F18" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="G18" s="4">
-        <v>1700</v>
+        <v>201</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2749,23 +2762,23 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>109</v>
+      <c r="B19" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="14">
-        <v>16.399794216253301</v>
-      </c>
-      <c r="E19" s="14">
-        <v>120.58405907955699</v>
+        <v>108</v>
+      </c>
+      <c r="D19" s="17">
+        <v>16.406546815938398</v>
+      </c>
+      <c r="E19" s="17">
+        <v>120.59308288327</v>
       </c>
       <c r="F19" s="5">
         <v>4.3</v>
       </c>
       <c r="G19" s="4">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>69</v>
@@ -2776,31 +2789,112 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="14">
-        <v>16.406464480047799</v>
-      </c>
-      <c r="E20" s="14">
-        <v>120.593276000442</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="B20" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="22">
+        <v>16.414487992613601</v>
+      </c>
+      <c r="E20" s="22">
+        <v>120.579369322673</v>
+      </c>
+      <c r="F20" s="23">
         <v>4.3</v>
       </c>
-      <c r="G20" s="4">
-        <v>59</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G20" s="24">
+        <v>220</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="25">
+        <v>16.4092648020256</v>
+      </c>
+      <c r="E21" s="25">
+        <v>120.599898068702</v>
+      </c>
+      <c r="F21" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="G21" s="24">
+        <v>3</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="25">
+        <v>16.418056502322301</v>
+      </c>
+      <c r="E22" s="25">
+        <v>120.622872053359</v>
+      </c>
+      <c r="F22" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G22" s="24">
+        <v>56</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="25">
+        <v>16.408614748825201</v>
+      </c>
+      <c r="E23" s="25">
+        <v>120.599743151903</v>
+      </c>
+      <c r="F23" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="G23" s="24">
+        <v>188</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Thesis_Codes/Back_End/Baguio_Dataset_Version2.xlsx
+++ b/Thesis_Codes/Back_End/Baguio_Dataset_Version2.xlsx
@@ -1,23 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ellison\School\3RD YEAR COLLEGE 1ST SEM\SOFTWARE ENGINEER\Cultour App\CulTour_Ellison_and_Friends\Thesis_Codes\Back_End\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AB9052-1DFC-474E-AB83-EEED65E90BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Monitor_Data"/>
-    <sheet r:id="rId2" sheetId="2" name="User_Account"/>
-    <sheet r:id="rId3" sheetId="3" name="Tourist Attraction"/>
-    <sheet r:id="rId4" sheetId="4" name="Restaurant"/>
+    <sheet name="Monitor_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="User_Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Tourist Attraction" sheetId="3" r:id="rId3"/>
+    <sheet name="Restaurant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="113">
   <si>
     <t>Restaurant_ID</t>
   </si>
@@ -353,13 +394,15 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Images</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,12 +445,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4285f4"/>
+        <fgColor rgb="FF4285F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -428,16 +471,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,80 +488,128 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,10 +617,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -567,71 +658,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,7 +750,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -682,11 +773,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -695,13 +786,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -711,7 +802,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -720,7 +811,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -729,7 +820,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -737,10 +828,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -805,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -815,12 +906,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
@@ -837,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -847,23 +936,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -873,30 +959,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -930,8 +1017,11 @@
       <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -945,7 +1035,7 @@
         <v>67</v>
       </c>
       <c r="E2" s="6">
-        <v>16.1077</v>
+        <v>16.107700000000001</v>
       </c>
       <c r="F2" s="6">
         <v>120.6062</v>
@@ -965,10 +1055,14 @@
       <c r="K2" s="6">
         <v>4.8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="L2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A15" si="0">A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>70</v>
@@ -980,10 +1074,10 @@
         <v>67</v>
       </c>
       <c r="E3" s="6">
-        <v>16.1125</v>
+        <v>16.112500000000001</v>
       </c>
       <c r="F3" s="6">
-        <v>120.6072</v>
+        <v>120.60720000000001</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>68</v>
@@ -998,12 +1092,13 @@
         <v>150</v>
       </c>
       <c r="K3" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
@@ -1015,7 +1110,7 @@
         <v>75</v>
       </c>
       <c r="E4" s="6">
-        <v>16.1078</v>
+        <v>16.107800000000001</v>
       </c>
       <c r="F4" s="6">
         <v>120.6063</v>
@@ -1027,7 +1122,7 @@
         <v>77</v>
       </c>
       <c r="I4" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J4" s="4">
         <v>200</v>
@@ -1036,9 +1131,10 @@
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>78</v>
@@ -1050,7 +1146,7 @@
         <v>80</v>
       </c>
       <c r="E5" s="6">
-        <v>16.108</v>
+        <v>16.108000000000001</v>
       </c>
       <c r="F5" s="6">
         <v>120.6065</v>
@@ -1071,9 +1167,10 @@
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>81</v>
@@ -1085,7 +1182,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="6">
-        <v>16.1031</v>
+        <v>16.103100000000001</v>
       </c>
       <c r="F6" s="6">
         <v>120.6041</v>
@@ -1103,12 +1200,13 @@
         <v>150</v>
       </c>
       <c r="K6" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>83</v>
@@ -1120,7 +1218,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="6">
-        <v>16.1108</v>
+        <v>16.110800000000001</v>
       </c>
       <c r="F7" s="6">
         <v>120.6069</v>
@@ -1132,7 +1230,7 @@
         <v>69</v>
       </c>
       <c r="I7" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J7" s="4">
         <v>120</v>
@@ -1141,9 +1239,10 @@
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>85</v>
@@ -1155,7 +1254,7 @@
         <v>67</v>
       </c>
       <c r="E8" s="6">
-        <v>16.1106</v>
+        <v>16.110600000000002</v>
       </c>
       <c r="F8" s="6">
         <v>120.6071</v>
@@ -1176,9 +1275,10 @@
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>89</v>
@@ -1190,7 +1290,7 @@
         <v>91</v>
       </c>
       <c r="E9" s="6">
-        <v>16.1041</v>
+        <v>16.104099999999999</v>
       </c>
       <c r="F9" s="6">
         <v>120.6073</v>
@@ -1208,12 +1308,13 @@
         <v>120</v>
       </c>
       <c r="K9" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>93</v>
@@ -1225,7 +1326,7 @@
         <v>95</v>
       </c>
       <c r="E10" s="6">
-        <v>16.1028</v>
+        <v>16.102799999999998</v>
       </c>
       <c r="F10" s="6">
         <v>120.6049</v>
@@ -1237,7 +1338,7 @@
         <v>88</v>
       </c>
       <c r="I10" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J10" s="4">
         <v>80</v>
@@ -1246,9 +1347,10 @@
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>97</v>
@@ -1260,7 +1362,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="6">
-        <v>16.1077</v>
+        <v>16.107700000000001</v>
       </c>
       <c r="F11" s="6">
         <v>120.6063</v>
@@ -1278,12 +1380,13 @@
         <v>150</v>
       </c>
       <c r="K11" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>99</v>
@@ -1313,12 +1416,13 @@
         <v>100</v>
       </c>
       <c r="K12" s="6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>101</v>
@@ -1330,7 +1434,7 @@
         <v>75</v>
       </c>
       <c r="E13" s="6">
-        <v>16.1078</v>
+        <v>16.107800000000001</v>
       </c>
       <c r="F13" s="6">
         <v>120.6063</v>
@@ -1342,7 +1446,7 @@
         <v>77</v>
       </c>
       <c r="I13" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J13" s="4">
         <v>200</v>
@@ -1351,9 +1455,10 @@
         <v>4.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>104</v>
@@ -1365,7 +1470,7 @@
         <v>95</v>
       </c>
       <c r="E14" s="6">
-        <v>16.242</v>
+        <v>16.242000000000001</v>
       </c>
       <c r="F14" s="6">
         <v>120.255</v>
@@ -1377,7 +1482,7 @@
         <v>77</v>
       </c>
       <c r="I14" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J14" s="4">
         <v>190</v>
@@ -1386,9 +1491,10 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>106</v>
@@ -1400,10 +1506,10 @@
         <v>95</v>
       </c>
       <c r="E15" s="6">
-        <v>16.4034</v>
+        <v>16.403400000000001</v>
       </c>
       <c r="F15" s="6">
-        <v>120.5935</v>
+        <v>120.59350000000001</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>87</v>
@@ -1421,7 +1527,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1434,21 +1540,12 @@
       <c r="J16" s="4"/>
       <c r="K16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+    <row r="17" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="14"/>
+    <row r="18" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1460,8 +1557,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="14"/>
+    <row r="19" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1473,8 +1569,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="14"/>
+    <row r="20" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1486,8 +1581,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="14"/>
+    <row r="21" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1499,8 +1593,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="14"/>
+    <row r="22" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1512,8 +1605,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="14"/>
+    <row r="23" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1525,8 +1617,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="14"/>
+    <row r="24" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1538,8 +1629,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="14"/>
+    <row r="25" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1551,8 +1641,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="14"/>
+    <row r="26" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1564,8 +1653,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="14"/>
+    <row r="27" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1577,8 +1665,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="14"/>
+    <row r="28" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1590,8 +1677,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="14"/>
+    <row r="29" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1603,8 +1689,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="14"/>
+    <row r="30" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1616,8 +1701,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="14"/>
+    <row r="31" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1629,8 +1713,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="14"/>
+    <row r="32" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1642,8 +1725,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="14"/>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1655,8 +1737,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="14"/>
+    <row r="34" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1668,8 +1749,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="14"/>
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1681,8 +1761,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="14"/>
+    <row r="36" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1694,8 +1773,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="14"/>
+    <row r="37" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1707,8 +1785,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="14"/>
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1720,8 +1797,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="14"/>
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1733,8 +1809,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="14"/>
+    <row r="40" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1746,8 +1821,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="14"/>
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1759,8 +1833,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="14"/>
+    <row r="42" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1772,8 +1845,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="14"/>
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1785,8 +1857,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="14"/>
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1798,8 +1869,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="14"/>
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1811,8 +1881,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="14"/>
+    <row r="46" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1824,8 +1893,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="14"/>
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1837,8 +1905,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="14"/>
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1850,8 +1917,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="14"/>
+    <row r="49" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1863,8 +1929,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="14"/>
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1876,8 +1941,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="14"/>
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1889,8 +1953,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="14"/>
+    <row r="52" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1902,8 +1965,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="14"/>
+    <row r="53" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1915,8 +1977,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="14"/>
+    <row r="54" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1928,8 +1989,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="14"/>
+    <row r="55" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1941,8 +2001,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="14"/>
+    <row r="56" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1954,382 +2013,153 @@
       <c r="J56" s="4"/>
       <c r="K56" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="14"/>
+    <row r="57" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="14"/>
+    </row>
+    <row r="58" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="14"/>
+    </row>
+    <row r="59" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="14"/>
+    </row>
+    <row r="60" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="14"/>
+    </row>
+    <row r="61" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="14"/>
+    </row>
+    <row r="62" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="14"/>
+    </row>
+    <row r="63" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="14"/>
+    </row>
+    <row r="64" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="14"/>
+    </row>
+    <row r="65" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="14"/>
+    </row>
+    <row r="66" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="14"/>
+    </row>
+    <row r="67" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="14"/>
+    </row>
+    <row r="68" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="14"/>
+    </row>
+    <row r="69" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="14"/>
+    </row>
+    <row r="70" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="14"/>
+    </row>
+    <row r="71" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="14"/>
+    </row>
+    <row r="72" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="14"/>
+    </row>
+    <row r="73" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="14"/>
+    </row>
+    <row r="74" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="14"/>
+    </row>
+    <row r="75" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="14"/>
+    </row>
+    <row r="76" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="14"/>
+    </row>
+    <row r="77" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="14"/>
+    </row>
+    <row r="78" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="14"/>
+    </row>
+    <row r="79" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="14"/>
+    </row>
+    <row r="80" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="14"/>
+    </row>
+    <row r="81" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="14"/>
+    </row>
+    <row r="82" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="14"/>
+    </row>
+    <row r="83" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="14"/>
+    </row>
+    <row r="84" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="14"/>
+    </row>
+    <row r="85" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,27 +2167,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="70.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2397,10 +2227,10 @@
         <v>16.4117807699579</v>
       </c>
       <c r="E2" s="6">
-        <v>120.592002125922</v>
+        <v>120.59200212592199</v>
       </c>
       <c r="F2" s="6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G2" s="4">
         <v>10000</v>
@@ -2409,7 +2239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2420,13 +2250,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="6">
-        <v>16.4099941521283</v>
+        <v>16.409994152128299</v>
       </c>
       <c r="E3" s="6">
         <v>120.600346114616</v>
       </c>
       <c r="F3" s="6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G3" s="4">
         <v>1400</v>
@@ -2435,7 +2265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2446,13 +2276,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="6">
-        <v>16.4093138222725</v>
+        <v>16.409313822272502</v>
       </c>
       <c r="E4" s="9">
         <v>120.594638174651</v>
       </c>
       <c r="F4" s="6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G4" s="4">
         <v>1600</v>
@@ -2461,7 +2291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2472,7 +2302,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="6">
-        <v>16.4299720842375</v>
+        <v>16.429972084237502</v>
       </c>
       <c r="E5" s="9">
         <v>120.576368765872</v>
@@ -2487,7 +2317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2504,7 +2334,7 @@
         <v>120.598029379366</v>
       </c>
       <c r="F6" s="6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G6" s="4">
         <v>797</v>
@@ -2513,7 +2343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2524,7 +2354,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="6">
-        <v>16.4044344347532</v>
+        <v>16.404434434753199</v>
       </c>
       <c r="E7" s="6">
         <v>120.592788330659</v>
@@ -2539,9 +2369,10 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f> A7 + 1</f>
+        <f t="shared" ref="A8:A23" si="0">A7 + 1</f>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -2550,13 +2381,13 @@
         <v>24</v>
       </c>
       <c r="D8" s="6">
-        <v>16.4111012538163</v>
+        <v>16.411101253816302</v>
       </c>
       <c r="E8" s="6">
-        <v>120.623009491737</v>
+        <v>120.62300949173699</v>
       </c>
       <c r="F8" s="6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G8" s="4">
         <v>1800</v>
@@ -2565,9 +2396,10 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f> A8 + 1</f>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>26</v>
@@ -2576,13 +2408,13 @@
         <v>27</v>
       </c>
       <c r="D9" s="6">
-        <v>16.4096487154558</v>
+        <v>16.409648715455798</v>
       </c>
       <c r="E9" s="6">
         <v>120.622977233689</v>
       </c>
       <c r="F9" s="6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G9" s="4">
         <v>1200</v>
@@ -2591,9 +2423,10 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f> A9 + 1</f>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>29</v>
@@ -2602,7 +2435,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="6">
-        <v>16.4120168723154</v>
+        <v>16.412016872315402</v>
       </c>
       <c r="E10" s="6">
         <v>120.609841612781</v>
@@ -2617,9 +2450,10 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f> A10 + 1</f>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>31</v>
@@ -2628,13 +2462,13 @@
         <v>32</v>
       </c>
       <c r="D11" s="6">
-        <v>16.4119761015376</v>
+        <v>16.411976101537601</v>
       </c>
       <c r="E11" s="6">
-        <v>120.602968898595</v>
+        <v>120.60296889859499</v>
       </c>
       <c r="F11" s="6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G11" s="4">
         <v>438</v>
@@ -2643,9 +2477,10 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f> A11 + 1</f>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>33</v>
@@ -2654,7 +2489,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="6">
-        <v>16.4113290353558</v>
+        <v>16.411329035355799</v>
       </c>
       <c r="E12" s="6">
         <v>120.604612093051</v>
@@ -2669,9 +2504,10 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f> A12 + 1</f>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>35</v>
@@ -2695,9 +2531,10 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f> A13 + 1</f>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>37</v>
@@ -2706,7 +2543,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="6">
-        <v>16.416627207255</v>
+        <v>16.416627207255001</v>
       </c>
       <c r="E14" s="6">
         <v>120.596860398595</v>
@@ -2721,9 +2558,10 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f> A14 + 1</f>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>39</v>
@@ -2732,13 +2570,13 @@
         <v>40</v>
       </c>
       <c r="D15" s="6">
-        <v>16.4130370922439</v>
+        <v>16.413037092243901</v>
       </c>
       <c r="E15" s="6">
         <v>120.591616408392</v>
       </c>
       <c r="F15" s="6">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G15" s="4">
         <v>1900</v>
@@ -2747,9 +2585,10 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f> A15 + 1</f>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>41</v>
@@ -2758,7 +2597,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="6">
-        <v>16.4051833945097</v>
+        <v>16.405183394509699</v>
       </c>
       <c r="E16" s="6">
         <v>120.604769647174</v>
@@ -2773,9 +2612,10 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f> A16 + 1</f>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>43</v>
@@ -2784,13 +2624,13 @@
         <v>44</v>
       </c>
       <c r="D17" s="6">
-        <v>16.4086274273305</v>
+        <v>16.408627427330501</v>
       </c>
       <c r="E17" s="6">
         <v>120.610522379557</v>
       </c>
       <c r="F17" s="6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G17" s="4">
         <v>1700</v>
@@ -2799,9 +2639,10 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f> A17 + 1</f>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>46</v>
@@ -2810,10 +2651,10 @@
         <v>47</v>
       </c>
       <c r="D18" s="6">
-        <v>16.3997942162533</v>
+        <v>16.399794216253301</v>
       </c>
       <c r="E18" s="6">
-        <v>120.584059079557</v>
+        <v>120.58405907955699</v>
       </c>
       <c r="F18" s="6">
         <v>4.3</v>
@@ -2825,9 +2666,10 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f> A18 + 1</f>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>48</v>
@@ -2836,7 +2678,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="6">
-        <v>16.4065468159384</v>
+        <v>16.406546815938398</v>
       </c>
       <c r="E19" s="6">
         <v>120.59308288327</v>
@@ -2851,9 +2693,10 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f> A19 + 1</f>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>50</v>
@@ -2862,7 +2705,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="6">
-        <v>16.4144879926136</v>
+        <v>16.414487992613601</v>
       </c>
       <c r="E20" s="6">
         <v>120.579369322673</v>
@@ -2877,9 +2720,10 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f> A20 + 1</f>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>52</v>
@@ -2903,9 +2747,10 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f> A21 + 1</f>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>54</v>
@@ -2914,13 +2759,13 @@
         <v>55</v>
       </c>
       <c r="D22" s="6">
-        <v>16.4180565023223</v>
+        <v>16.418056502322301</v>
       </c>
       <c r="E22" s="6">
         <v>120.622872053359</v>
       </c>
       <c r="F22" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G22" s="4">
         <v>56</v>
@@ -2929,9 +2774,10 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f> A22 + 1</f>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>56</v>
@@ -2940,7 +2786,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="6">
-        <v>16.4086147488252</v>
+        <v>16.408614748825201</v>
       </c>
       <c r="E23" s="6">
         <v>120.599743151903</v>
